--- a/Shiny Template/ShinyApp/data/soil/soillabelsranking.xlsx
+++ b/Shiny Template/ShinyApp/data/soil/soillabelsranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwiggins\Documents\hanover-DSPG-2023\data\soil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CCB684B-B44E-45D9-80DD-76F8CC456A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8095271-A077-4BF6-996A-256FA8EDAB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="100" windowWidth="19040" windowHeight="9980" xr2:uid="{231AB44A-105E-44EB-8E34-03BEA2ABE4EF}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{231AB44A-105E-44EB-8E34-03BEA2ABE4EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="202">
   <si>
     <t>Map Unit Symbol</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Map Unit Name</t>
   </si>
   <si>
-    <t>Acres in AOI</t>
-  </si>
-  <si>
     <t>Percent of AOI</t>
   </si>
   <si>
@@ -627,16 +624,22 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>All areas are prime farmland</t>
-  </si>
-  <si>
-    <t>Farmland of statewide importance</t>
-  </si>
-  <si>
-    <t>Prime farmland if drained</t>
-  </si>
-  <si>
-    <t>Not prime farmland</t>
+    <t>Acres_in_AOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prime Farmland  </t>
+  </si>
+  <si>
+    <t>Prime Farmland</t>
+  </si>
+  <si>
+    <t>Farmland of Statewide Importance</t>
+  </si>
+  <si>
+    <t>Prime Farmland if Drained</t>
+  </si>
+  <si>
+    <t>Not Prime Farmland</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCA7672-393E-46D2-86EC-71EFA2A770C7}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,6 +1157,7 @@
     <col min="5" max="5" width="15.453125" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="23.6328125" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1169,24 +1173,24 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5">
@@ -1199,12 +1203,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1218,15 +1222,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5">
@@ -1236,21 +1240,21 @@
         <v>0.02</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="5">
         <v>1577.7</v>
@@ -1259,18 +1263,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3">
@@ -1280,18 +1284,18 @@
         <v>1E-3</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3">
@@ -1301,18 +1305,18 @@
         <v>1E-3</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3">
@@ -1322,7 +1326,7 @@
         <v>1E-3</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1330,13 +1334,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="5">
         <v>2473</v>
@@ -1345,18 +1349,18 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5">
@@ -1366,7 +1370,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1374,7 +1378,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1385,7 +1389,7 @@
         <v>2E-3</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1393,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1404,18 +1408,18 @@
         <v>2E-3</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5">
@@ -1425,18 +1429,18 @@
         <v>0.02</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3">
@@ -1446,18 +1450,18 @@
         <v>1E-3</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5">
@@ -1467,18 +1471,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3">
@@ -1488,18 +1492,18 @@
         <v>2E-3</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="3">
@@ -1509,21 +1513,21 @@
         <v>2E-3</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3">
         <v>421.4</v>
@@ -1532,21 +1536,21 @@
         <v>1E-3</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3">
         <v>848.8</v>
@@ -1555,21 +1559,21 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E21" s="5">
         <v>4214.2</v>
@@ -1578,21 +1582,21 @@
         <v>1.4E-2</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="5">
         <v>8127.9</v>
@@ -1601,21 +1605,21 @@
         <v>2.7E-2</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E23" s="5">
         <v>1203.4000000000001</v>
@@ -1624,21 +1628,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="5">
         <v>4229.3</v>
@@ -1647,21 +1651,21 @@
         <v>1.4E-2</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E25" s="5">
         <v>2950.5</v>
@@ -1670,21 +1674,21 @@
         <v>0.01</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="3">
         <v>291</v>
@@ -1693,7 +1697,7 @@
         <v>1E-3</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1701,7 +1705,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1712,18 +1716,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5">
@@ -1733,18 +1737,18 @@
         <v>1.2E-2</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="3">
@@ -1754,7 +1758,7 @@
         <v>1E-3</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1762,7 +1766,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1773,18 +1777,18 @@
         <v>0.02</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="3">
@@ -1794,18 +1798,18 @@
         <v>2E-3</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3">
@@ -1815,21 +1819,21 @@
         <v>2E-3</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="5">
         <v>1855.9</v>
@@ -1838,21 +1842,21 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E34" s="5">
         <v>1665.6</v>
@@ -1861,21 +1865,21 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3">
         <v>423.4</v>
@@ -1884,7 +1888,7 @@
         <v>1E-3</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1892,7 +1896,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1903,15 +1907,15 @@
         <v>1E-3</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>23</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1922,7 +1926,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1930,7 +1934,7 @@
         <v>24</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1941,18 +1945,18 @@
         <v>1.2E-2</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5">
@@ -1962,18 +1966,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5">
@@ -1983,18 +1987,18 @@
         <v>1.4E-2</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="3">
@@ -2004,18 +2008,18 @@
         <v>1E-3</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="5">
@@ -2025,21 +2029,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E43" s="5">
         <v>1027.8</v>
@@ -2048,7 +2052,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2056,10 +2060,10 @@
         <v>28</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5">
@@ -2069,7 +2073,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2077,7 +2081,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2088,7 +2092,7 @@
         <v>2E-3</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2096,10 +2100,10 @@
         <v>30</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5">
@@ -2109,7 +2113,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2117,7 +2121,7 @@
         <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2128,18 +2132,18 @@
         <v>2E-3</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="3">
@@ -2149,21 +2153,21 @@
         <v>1E-3</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="3">
         <v>156</v>
@@ -2172,18 +2176,18 @@
         <v>1E-3</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="C50" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="3">
@@ -2193,21 +2197,21 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" s="5">
         <v>1287</v>
@@ -2216,18 +2220,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5">
@@ -2237,18 +2241,18 @@
         <v>2.3E-2</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="C53" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="3">
@@ -2258,7 +2262,7 @@
         <v>2E-3</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2266,10 +2270,10 @@
         <v>37</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="5">
@@ -2279,18 +2283,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C55" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="3">
@@ -2300,18 +2304,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5">
@@ -2321,18 +2325,18 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="3">
@@ -2342,18 +2346,18 @@
         <v>2E-3</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C58" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="3">
@@ -2363,18 +2367,18 @@
         <v>1E-3</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="5">
@@ -2384,7 +2388,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2392,10 +2396,10 @@
         <v>41</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="5">
@@ -2405,7 +2409,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2413,7 +2417,7 @@
         <v>42</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2424,7 +2428,7 @@
         <v>1E-3</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2432,7 +2436,7 @@
         <v>43</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2443,18 +2447,18 @@
         <v>2E-3</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="C63" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="3">
@@ -2464,18 +2468,18 @@
         <v>2E-3</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="C64" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="3">
@@ -2485,7 +2489,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2493,7 +2497,7 @@
         <v>46</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2504,18 +2508,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C66" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="5">
@@ -2525,18 +2529,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="5">
@@ -2546,18 +2550,18 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="C68" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5">
@@ -2567,18 +2571,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="5">
@@ -2588,18 +2592,18 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="C70" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="5">
@@ -2609,18 +2613,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="5">
@@ -2630,18 +2634,18 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="3">
@@ -2651,21 +2655,21 @@
         <v>1E-3</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" s="5">
         <v>3751.3</v>
@@ -2674,21 +2678,21 @@
         <v>1.2E-2</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E74" s="5">
         <v>11385.3</v>
@@ -2697,21 +2701,21 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" s="5">
         <v>2632.8</v>
@@ -2720,21 +2724,21 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="E76" s="3">
         <v>531.9</v>
@@ -2743,18 +2747,18 @@
         <v>2E-3</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="C77" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="3">
@@ -2764,21 +2768,21 @@
         <v>1E-3</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E78" s="3">
         <v>330.3</v>
@@ -2787,18 +2791,18 @@
         <v>1E-3</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C79" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
@@ -2808,18 +2812,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="C80" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="3">
@@ -2829,18 +2833,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
@@ -2850,18 +2854,18 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <v>56</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="3">
@@ -2871,18 +2875,18 @@
         <v>1E-3</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
@@ -2892,18 +2896,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="C84" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
@@ -2913,18 +2917,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
@@ -2934,18 +2938,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
@@ -2955,7 +2959,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2963,10 +2967,10 @@
         <v>59</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="3">
@@ -2976,7 +2980,7 @@
         <v>1E-3</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2984,10 +2988,10 @@
         <v>60</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="3">
@@ -2997,7 +3001,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3005,7 +3009,7 @@
         <v>61</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3016,18 +3020,18 @@
         <v>1E-3</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="C90" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
@@ -3037,18 +3041,18 @@
         <v>1.6E-2</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
@@ -3058,18 +3062,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="C92" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
@@ -3079,18 +3083,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
@@ -3100,18 +3104,18 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="3">
@@ -3121,18 +3125,18 @@
         <v>1E-3</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="C95" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
@@ -3142,18 +3146,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="C96" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="3">
@@ -3163,18 +3167,18 @@
         <v>1E-3</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="3">
@@ -3184,18 +3188,18 @@
         <v>2E-3</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
@@ -3205,18 +3209,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
@@ -3226,7 +3230,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3234,10 +3238,10 @@
         <v>67</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="3">
@@ -3247,7 +3251,7 @@
         <v>2E-3</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3255,10 +3259,10 @@
         <v>68</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="3">
@@ -3268,18 +3272,18 @@
         <v>2E-3</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="C102" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
@@ -3289,18 +3293,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
@@ -3310,18 +3314,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
@@ -3331,18 +3335,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
@@ -3352,18 +3356,18 @@
         <v>0.03</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
@@ -3373,18 +3377,18 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
@@ -3394,18 +3398,18 @@
         <v>3.1E-2</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="3">
@@ -3415,18 +3419,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="C109" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
@@ -3436,21 +3440,21 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E110" s="5">
         <v>7555.7</v>
@@ -3459,18 +3463,18 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="C111" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
@@ -3480,7 +3484,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3488,7 +3492,7 @@
         <v>73</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -3499,21 +3503,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="C113" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113" s="5">
         <v>2185</v>
@@ -3522,21 +3526,21 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E114" s="5">
         <v>11549.8</v>
@@ -3545,21 +3549,21 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="D115" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115" s="5">
         <v>2723.3</v>
@@ -3568,21 +3572,21 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="C116" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E116" s="3">
         <v>341.1</v>
@@ -3591,18 +3595,18 @@
         <v>1E-3</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="3">
@@ -3612,18 +3616,18 @@
         <v>1E-3</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="C118" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="3">
@@ -3633,7 +3637,7 @@
         <v>2E-3</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>77</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -3652,7 +3656,7 @@
         <v>0.01</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -3660,7 +3664,7 @@
         <v>78</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -3671,15 +3675,15 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -3690,12 +3694,12 @@
         <v>0.01</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -3724,15 +3728,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001FF749B428B33B49BEE48E164690BF9D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aed51898d8df5dc8258e6cf9194ab489">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e9bd7074-53e2-486a-b5f4-1c7933985328" xmlns:ns3="f16e55e8-ebdf-466c-a0df-0c5a18258943" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="500489c3141aea71e3ab0db8d424c125" ns2:_="" ns3:_="">
     <xsd:import namespace="e9bd7074-53e2-486a-b5f4-1c7933985328"/>
@@ -3949,6 +3944,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2DFBED5-D5B1-4B19-ABA8-FB6CAA42253E}">
   <ds:schemaRefs>
@@ -3961,14 +3965,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A076AC1B-A9E3-4A54-83C7-2686E22597B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1305CDE3-CE82-43F6-BF9F-63E7B0348414}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3985,4 +3981,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A076AC1B-A9E3-4A54-83C7-2686E22597B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>